--- a/biology/Zoologie/Bison_bonasus_bonasus/Bison_bonasus_bonasus.xlsx
+++ b/biology/Zoologie/Bison_bonasus_bonasus/Bison_bonasus_bonasus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bison d'Europe centrale, Bison de Pologne, Bison des plaines
 Bison bonasus bonasus, le Bison d'Europe centrale, Bison de Pologne (en raison de sa plus forte présence en Pologne qu'en Allemagne) ou Bison des  plaines est une sous-espèce du Bison d'Europe découverte par Linnaeus en 1758. C'est la seule sous-espèce de Bison d'Europe non éteinte. Autrefois elle était présente de l'Allemagne à l'Ukraine. 
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allemagne, Biélorussie, Pologne et Roumanie (Carpates du sud)
 </t>
